--- a/CurrentWork/MainProgramm/AllDataICES2016.xlsx
+++ b/CurrentWork/MainProgramm/AllDataICES2016.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" tabRatio="756" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Recruitment(Thousands)SSB(tonn)" sheetId="1" r:id="rId1"/>
     <sheet name="Population Per Age(Thousands)" sheetId="3" r:id="rId2"/>
-    <sheet name="U - Fishing Mortality(without e" sheetId="5" r:id="rId3"/>
+    <sheet name="U - Fishing Mortality(with e)" sheetId="8" r:id="rId3"/>
     <sheet name="MU - Natural Mortality" sheetId="4" r:id="rId4"/>
     <sheet name="Gamma" sheetId="6" r:id="rId5"/>
     <sheet name="FullNaturalMortality(WithoutEx)" sheetId="7" r:id="rId6"/>
+    <sheet name="U - Fishing Mortality(without e" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Population Per Age(Thousands)'!$A$1:$F$55</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="129">
   <si>
     <t>Year</t>
   </si>
@@ -82,820 +83,67 @@
     <t>year</t>
   </si>
   <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.383</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.479</t>
-  </si>
-  <si>
-    <t>0.314</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>0.199</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.472</t>
-  </si>
-  <si>
     <t>0.216</t>
   </si>
   <si>
-    <t>0.371</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.446</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.062</t>
-  </si>
-  <si>
-    <t>0.298</t>
-  </si>
-  <si>
-    <t>0.505</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.628</t>
-  </si>
-  <si>
     <t>0.746</t>
   </si>
   <si>
-    <t>0.102</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.108</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.672</t>
-  </si>
-  <si>
-    <t>0.798</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.119</t>
-  </si>
-  <si>
-    <t>0.428</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.858</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.134</t>
-  </si>
-  <si>
-    <t>0.486</t>
-  </si>
-  <si>
-    <t>0.758</t>
-  </si>
-  <si>
-    <t>0.839</t>
-  </si>
-  <si>
-    <t>0.963</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.153</t>
-  </si>
-  <si>
-    <t>0.526</t>
-  </si>
-  <si>
-    <t>0.812</t>
-  </si>
-  <si>
-    <t>0.919</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>0.716</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.862</t>
-  </si>
-  <si>
-    <t>0.977</t>
-  </si>
-  <si>
-    <t>1.056</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>0.171</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.909</t>
-  </si>
-  <si>
-    <t>1.013</t>
-  </si>
-  <si>
-    <t>1.073</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>1.068</t>
-  </si>
-  <si>
-    <t>1.133</t>
-  </si>
-  <si>
     <t>0.73</t>
   </si>
   <si>
-    <t>1.032</t>
-  </si>
-  <si>
     <t>1.136</t>
   </si>
   <si>
-    <t>1.217</t>
-  </si>
-  <si>
-    <t>0.855</t>
-  </si>
-  <si>
     <t>0.211</t>
   </si>
   <si>
-    <t>0.741</t>
-  </si>
-  <si>
-    <t>1.016</t>
-  </si>
-  <si>
-    <t>1.113</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>0.863</t>
-  </si>
-  <si>
     <t>0.215</t>
   </si>
   <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.933</t>
-  </si>
-  <si>
-    <t>1.139</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>0.209</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.902</t>
-  </si>
-  <si>
-    <t>0.996</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
     <t>0.212</t>
   </si>
   <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.889</t>
-  </si>
-  <si>
-    <t>0.994</t>
-  </si>
-  <si>
-    <t>0.895</t>
-  </si>
-  <si>
     <t>0.232</t>
   </si>
   <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>0.842</t>
-  </si>
-  <si>
-    <t>0.973</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>0.923</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>0.931</t>
-  </si>
-  <si>
-    <t>1.065</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>0.241</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
     <t>0.907</t>
   </si>
   <si>
-    <t>1.027</t>
-  </si>
-  <si>
-    <t>0.883</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.652</t>
-  </si>
-  <si>
-    <t>0.778</t>
-  </si>
-  <si>
-    <t>0.888</t>
-  </si>
-  <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>0.877</t>
-  </si>
-  <si>
-    <t>0.785</t>
-  </si>
-  <si>
-    <t>1.007</t>
-  </si>
-  <si>
-    <t>0.896</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.664</t>
-  </si>
-  <si>
-    <t>0.768</t>
-  </si>
-  <si>
     <t>0.884</t>
   </si>
   <si>
-    <t>1.018</t>
-  </si>
-  <si>
-    <t>0.918</t>
-  </si>
-  <si>
-    <t>0.262</t>
-  </si>
-  <si>
     <t>0.734</t>
   </si>
   <si>
-    <t>0.844</t>
-  </si>
-  <si>
     <t>0.962</t>
   </si>
   <si>
-    <t>1.101</t>
-  </si>
-  <si>
-    <t>0.979</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.823</t>
-  </si>
-  <si>
-    <t>0.941</t>
-  </si>
-  <si>
     <t>1.085</t>
   </si>
   <si>
-    <t>0.964</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
     <t>0.718</t>
   </si>
   <si>
-    <t>1.058</t>
-  </si>
-  <si>
-    <t>0.952</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>1.078</t>
-  </si>
-  <si>
-    <t>0.978</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>0.852</t>
-  </si>
-  <si>
-    <t>1.022</t>
-  </si>
-  <si>
     <t>0.945</t>
   </si>
   <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.783</t>
-  </si>
-  <si>
     <t>0.871</t>
   </si>
   <si>
-    <t>1.066</t>
-  </si>
-  <si>
-    <t>0.985</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.826</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>1.149</t>
-  </si>
-  <si>
-    <t>1.057</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.833</t>
-  </si>
-  <si>
-    <t>0.917</t>
-  </si>
-  <si>
     <t>1.159</t>
   </si>
   <si>
-    <t>1.071</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.738</t>
-  </si>
-  <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>1.029</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>1.005</t>
-  </si>
-  <si>
-    <t>0.974</t>
-  </si>
-  <si>
-    <t>0.313</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.908</t>
-  </si>
-  <si>
     <t>0.756</t>
   </si>
   <si>
-    <t>0.765</t>
-  </si>
-  <si>
-    <t>0.969</t>
-  </si>
-  <si>
-    <t>0.972</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.866</t>
-  </si>
-  <si>
-    <t>0.273</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
     <t>0.701</t>
   </si>
   <si>
-    <t>0.934</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.848</t>
-  </si>
-  <si>
-    <t>0.861</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>0.793</t>
-  </si>
-  <si>
     <t>0.219</t>
   </si>
   <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.836</t>
-  </si>
-  <si>
-    <t>0.815</t>
-  </si>
-  <si>
     <t>0.222</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.182</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.711</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.602</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.533</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.109</t>
-  </si>
-  <si>
-    <t>0.531</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>0.104</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.089</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>0.465</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>0.079</t>
   </si>
   <si>
     <t>age6+</t>
@@ -1276,7 +524,49 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="52">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -1423,24 +713,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1528,7 +800,7 @@
     <tableColumn id="2" uniqueName="2" name="Year" queryTableFieldId="2"/>
     <tableColumn id="3" uniqueName="3" name="SSB(tonnes)" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="Recruitment(Thousands)" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="F" queryTableFieldId="5" dataDxfId="43"/>
+    <tableColumn id="5" uniqueName="5" name="F" queryTableFieldId="5" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1539,65 +811,19 @@
   <autoFilter ref="A1:G55"/>
   <tableColumns count="7">
     <tableColumn id="2" uniqueName="2" name="year" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="age1" queryTableFieldId="3" dataDxfId="42"/>
-    <tableColumn id="4" uniqueName="4" name="age2" queryTableFieldId="4" dataDxfId="41"/>
-    <tableColumn id="5" uniqueName="5" name="age3" queryTableFieldId="5" dataDxfId="40"/>
-    <tableColumn id="6" uniqueName="6" name="age4" queryTableFieldId="6" dataDxfId="39"/>
-    <tableColumn id="7" uniqueName="7" name="age5" queryTableFieldId="7" dataDxfId="38"/>
-    <tableColumn id="1" uniqueName="1" name="age6" queryTableFieldId="14" dataDxfId="37"/>
+    <tableColumn id="3" uniqueName="3" name="age1" queryTableFieldId="3" dataDxfId="50"/>
+    <tableColumn id="4" uniqueName="4" name="age2" queryTableFieldId="4" dataDxfId="49"/>
+    <tableColumn id="5" uniqueName="5" name="age3" queryTableFieldId="5" dataDxfId="48"/>
+    <tableColumn id="6" uniqueName="6" name="age4" queryTableFieldId="6" dataDxfId="47"/>
+    <tableColumn id="7" uniqueName="7" name="age5" queryTableFieldId="7" dataDxfId="46"/>
+    <tableColumn id="1" uniqueName="1" name="age6" queryTableFieldId="14" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:G54" totalsRowShown="0" headerRowDxfId="36">
-  <autoFilter ref="A1:G54"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="year" dataDxfId="35"/>
-    <tableColumn id="2" name="age1" dataDxfId="34"/>
-    <tableColumn id="3" name="age2" dataDxfId="33"/>
-    <tableColumn id="4" name="age3" dataDxfId="32"/>
-    <tableColumn id="5" name="age4" dataDxfId="31"/>
-    <tableColumn id="6" name="age5" dataDxfId="30"/>
-    <tableColumn id="7" name="age6+" dataDxfId="29"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица68" displayName="Таблица68" ref="A1:F2" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="age1" dataDxfId="24"/>
-    <tableColumn id="2" name="age2" dataDxfId="23"/>
-    <tableColumn id="3" name="age3" dataDxfId="22"/>
-    <tableColumn id="4" name="age4" dataDxfId="21"/>
-    <tableColumn id="5" name="age5" dataDxfId="20"/>
-    <tableColumn id="6" name="age6+" dataDxfId="19"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:F2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="age1" dataDxfId="14"/>
-    <tableColumn id="2" name="age2" dataDxfId="13"/>
-    <tableColumn id="3" name="age3" dataDxfId="12"/>
-    <tableColumn id="4" name="age4" dataDxfId="11"/>
-    <tableColumn id="5" name="age5" dataDxfId="10"/>
-    <tableColumn id="6" name="age6+" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:G54" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица43" displayName="Таблица43" ref="A1:G54" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:G54"/>
   <tableColumns count="7">
     <tableColumn id="1" name="year" dataDxfId="6"/>
@@ -1606,9 +832,71 @@
     <tableColumn id="4" name="age3" dataDxfId="3"/>
     <tableColumn id="5" name="age4" dataDxfId="2"/>
     <tableColumn id="6" name="age5" dataDxfId="1"/>
-    <tableColumn id="7" name="age6" dataDxfId="0"/>
+    <tableColumn id="7" name="age6+" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица68" displayName="Таблица68" ref="A1:F2" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="age1" dataDxfId="38"/>
+    <tableColumn id="2" name="age2" dataDxfId="37"/>
+    <tableColumn id="3" name="age3" dataDxfId="36"/>
+    <tableColumn id="4" name="age4" dataDxfId="35"/>
+    <tableColumn id="5" name="age5" dataDxfId="34"/>
+    <tableColumn id="6" name="age6+" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:F2" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="age1" dataDxfId="28"/>
+    <tableColumn id="2" name="age2" dataDxfId="27"/>
+    <tableColumn id="3" name="age3" dataDxfId="26"/>
+    <tableColumn id="4" name="age4" dataDxfId="25"/>
+    <tableColumn id="5" name="age5" dataDxfId="24"/>
+    <tableColumn id="6" name="age6+" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:G54" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:G54"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="year" dataDxfId="20"/>
+    <tableColumn id="2" name="age1" dataDxfId="19"/>
+    <tableColumn id="3" name="age2" dataDxfId="18"/>
+    <tableColumn id="4" name="age3" dataDxfId="17"/>
+    <tableColumn id="5" name="age4" dataDxfId="16"/>
+    <tableColumn id="6" name="age5" dataDxfId="15"/>
+    <tableColumn id="7" name="age6" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:G54" totalsRowShown="0" headerRowDxfId="44">
+  <autoFilter ref="A1:G54"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="year" dataDxfId="43"/>
+    <tableColumn id="2" name="age1" dataDxfId="13"/>
+    <tableColumn id="3" name="age2" dataDxfId="12"/>
+    <tableColumn id="4" name="age3" dataDxfId="11"/>
+    <tableColumn id="5" name="age4" dataDxfId="10"/>
+    <tableColumn id="6" name="age5" dataDxfId="9"/>
+    <tableColumn id="7" name="age6+" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1892,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>379</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4285,17 +3573,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="7" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4303,23 +3590,23 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>283</v>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -4327,23 +3614,23 @@
       <c r="A2">
         <v>1963</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>277</v>
+      <c r="B2" s="1">
+        <v>0.92403992444508676</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.64210720708779523</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.59989538338118553</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.62813510518964077</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.6306526773980542</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.62313007117765784</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -4351,23 +3638,23 @@
       <c r="A3">
         <v>1964</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>271</v>
+      <c r="B3" s="1">
+        <v>0.91484557357445195</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.62002219698199401</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.57006778737801345</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.60229977048306538</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.60109637473897526</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -4375,23 +3662,23 @@
       <c r="A4">
         <v>1965</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>263</v>
+      <c r="B4" s="1">
+        <v>0.90122529742120483</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.58978335761285039</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.53633302261292415</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.57752704876195471</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.58801665891308541</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.58684180084494664</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -4399,23 +3686,23 @@
       <c r="A5">
         <v>1966</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>263</v>
+      <c r="B5" s="1">
+        <v>0.89673041749823545</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.58216579539864144</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.53205947541304766</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.58042191514074237</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.58978335761285039</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.58684180084494664</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -4423,23 +3710,23 @@
       <c r="A6">
         <v>1967</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>259</v>
+      <c r="B6" s="1">
+        <v>0.88780780076195009</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.56270486880695569</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.51017575244082025</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.55989836656540204</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.56496019592932623</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.56326785512200472</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -4447,23 +3734,23 @@
       <c r="A7">
         <v>1968</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>254</v>
+      <c r="B7" s="1">
+        <v>0.87721777439104354</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.54226525331398323</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.49115279900368264</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.54064089530931658</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.5477151097137275</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.55101127899134072</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -4471,23 +3758,23 @@
       <c r="A8">
         <v>1969</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>249</v>
+      <c r="B8" s="1">
+        <v>0.8842636625608209</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.55654903441046488</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.51119712497778136</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.55933874805472683</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.56214244519682244</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5643955181193584</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -4495,23 +3782,23 @@
       <c r="A9">
         <v>1970</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>243</v>
+      <c r="B9" s="1">
+        <v>0.866754068895489</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.52834806417939095</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.49115279900368264</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.54826309877230472</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.55654903441046488</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.56552543869953709</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -4519,23 +3806,23 @@
       <c r="A10">
         <v>1971</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>239</v>
+      <c r="B10" s="1">
+        <v>0.8336013404157353</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.47854740642884119</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.44932896411722156</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5127330190418905</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.52518746706743613</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.5395606940799943</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -4543,23 +3830,23 @@
       <c r="A11">
         <v>1972</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>237</v>
+      <c r="B11" s="1">
+        <v>0.80654144017732687</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.44396923921378006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.42316208231774882</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.4887031641990795</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.50207789600677311</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.51685133449169918</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -4567,23 +3854,23 @@
       <c r="A12">
         <v>1973</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>231</v>
+      <c r="B12" s="1">
+        <v>0.80091536433465915</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.44263932736135114</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.43344082381650428</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.50057391941162777</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5163347414967544</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.53526142851899028</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -4591,23 +3878,23 @@
       <c r="A13">
         <v>1974</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>226</v>
+      <c r="B13" s="1">
+        <v>0.80332171815362652</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.45248530115731672</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.4542988670756955</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.52152399192015753</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.53259180100689718</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.54936072222743004</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -4615,23 +3902,23 @@
       <c r="A14">
         <v>1975</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>215</v>
+      <c r="B14" s="1">
+        <v>0.77802237155895726</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.42273913174596284</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.42827061721265969</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.49857562299121655</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.51017575244082025</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.53205947541304766</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -4639,23 +3926,23 @@
       <c r="A15">
         <v>1976</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>220</v>
+      <c r="B15" s="1">
+        <v>0.74976159223904126</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.39297864775542996</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.40333007806711874</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.48384048646799099</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.4960889666975265</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.52204577676101604</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -4663,23 +3950,23 @@
       <c r="A16">
         <v>1977</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>215</v>
+      <c r="B16" s="1">
+        <v>0.76109278762893429</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.4081991952779227</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.42063071153031245</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.50560477093969147</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.50915642060754918</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.53205947541304766</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -4687,23 +3974,23 @@
       <c r="A17">
         <v>1978</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>115</v>
+      <c r="B17" s="1">
+        <v>0.73565060090725332</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.37832562968807681</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.37946231074621756</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.46533393097431341</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.46954083904279925</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.5000735956957677</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -4711,23 +3998,23 @@
       <c r="A18">
         <v>1979</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>45</v>
+      <c r="B18" s="1">
+        <v>0.75351978785971729</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.40333007806711874</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.39971639333813408</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.4901714750567302</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.50207789600677311</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.53365805050299064</v>
       </c>
       <c r="H18" s="4"/>
     </row>
@@ -4735,23 +4022,23 @@
       <c r="A19">
         <v>1980</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>203</v>
+      <c r="B19" s="1">
+        <v>0.73124991256888205</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.37756973457577797</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.36604463480401539</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.45703285403707788</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.47854740642884119</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.51324600851291879</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -4759,23 +4046,23 @@
       <c r="A20">
         <v>1981</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>198</v>
+      <c r="B20" s="1">
+        <v>0.73198152822831264</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.37568659766836787</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.35736414609271289</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.44798299718474366</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.47806909821637761</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.5127330190418905</v>
       </c>
       <c r="H20" s="4"/>
     </row>
@@ -4783,23 +4070,23 @@
       <c r="A21">
         <v>1982</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>192</v>
+      <c r="B21" s="1">
+        <v>0.70468808971871344</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.3426656803483929</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.31379982385883909</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.39971639333813408</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.43474309872360845</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.47378578017596978</v>
       </c>
       <c r="H21" s="4"/>
     </row>
@@ -4807,23 +4094,23 @@
       <c r="A22">
         <v>1983</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>186</v>
+      <c r="B22" s="1">
+        <v>0.71177032276260965</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.34749673837241524</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.31695356451960294</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.39851904108451414</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.43779697651695965</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.47854740642884119</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -4831,23 +4118,23 @@
       <c r="A23">
         <v>1984</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>180</v>
+      <c r="B23" s="1">
+        <v>0.73638661945610007</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.37343922693666093</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.34438329921894001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.41853280710435814</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.45703285403707788</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.49658530379140953</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -4855,23 +4142,23 @@
       <c r="A24">
         <v>1985</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>174</v>
+      <c r="B24" s="1">
+        <v>0.75201425431938262</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.38867957090175304</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.35987447100205955</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.42656095634509139</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.46673202886549986</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.50661699236558955</v>
       </c>
       <c r="H24" s="4"/>
     </row>
@@ -4879,23 +4166,23 @@
       <c r="A25">
         <v>1986</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>169</v>
+      <c r="B25" s="1">
+        <v>0.74304401236193984</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.37606247217196515</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.3402753963403008</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.397325275504954</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.4404316545059993</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.48384048646799099</v>
       </c>
       <c r="H25" s="4"/>
     </row>
@@ -4903,23 +4190,23 @@
       <c r="A26">
         <v>1987</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>165</v>
+      <c r="B26" s="1">
+        <v>0.75578374145572547</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.38596831437424217</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.34714941532451032</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.39931687673638988</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.44396923921378006</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.48772673462573118</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -4927,23 +4214,23 @@
       <c r="A27">
         <v>1988</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>159</v>
+      <c r="B27" s="1">
+        <v>0.75351978785971729</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.38136437349418956</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.33790178589471304</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.39023740277199193</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.43911233950446971</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.48723925167320525</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -4951,23 +4238,23 @@
       <c r="A28">
         <v>1989</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>153</v>
+      <c r="B28" s="1">
+        <v>0.74826356757856527</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.37568659766836787</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.33253837899445871</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.38212786547866506</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.4299871304192398</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.47998520426653601</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -4975,23 +4262,23 @@
       <c r="A29">
         <v>1990</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>147</v>
+      <c r="B29" s="1">
+        <v>0.76951102370757585</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.39931687673638988</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.36131685172433853</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.41312709387821822</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.46394002109164673</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.51478805845683617</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -4999,23 +4286,23 @@
       <c r="A30">
         <v>1991</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>61</v>
+      <c r="B30" s="1">
+        <v>0.77802237155895726</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.4081991952779227</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.36531327713586137</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.4106557527523455</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.45611970178563921</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.51017575244082025</v>
       </c>
       <c r="H30" s="4"/>
     </row>
@@ -5023,23 +4310,23 @@
       <c r="A31">
         <v>1992</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>138</v>
+      <c r="B31" s="1">
+        <v>0.78584162638834554</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.41602912880765253</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.3682475046136629</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.41147788611717057</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.45932374075137034</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.52100272860333441</v>
       </c>
       <c r="H31" s="4"/>
     </row>
@@ -5047,23 +4334,23 @@
       <c r="A32">
         <v>1993</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>132</v>
+      <c r="B32" s="1">
+        <v>0.78662786106655347</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.41354042760451515</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.35807958958991437</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.40373360987746337</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.45384479528235583</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.5225680836476948</v>
       </c>
       <c r="H32" s="4"/>
     </row>
@@ -5071,23 +4358,23 @@
       <c r="A33">
         <v>1994</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>126</v>
+      <c r="B33" s="1">
+        <v>0.78584162638834554</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.4106557527523455</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.34472785476722018</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.39415935387234219</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.44574867266496021</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.52152399192015753</v>
       </c>
       <c r="H33" s="4"/>
     </row>
@@ -5095,23 +4382,23 @@
       <c r="A34">
         <v>1995</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>120</v>
+      <c r="B34" s="1">
+        <v>0.77957997338470042</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.397325275504954</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.32303325642225295</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.37794749315816506</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.43084796522794205</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.51581866483659411</v>
       </c>
       <c r="H34" s="4"/>
     </row>
@@ -5119,23 +4406,23 @@
       <c r="A35">
         <v>1996</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>115</v>
+      <c r="B35" s="1">
+        <v>0.79294612330668368</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.40860759864084845</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.3211008598705607</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.37009335291196127</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.41106661390143395</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.5000735956957677</v>
       </c>
       <c r="H35" s="4"/>
     </row>
@@ -5143,23 +4430,23 @@
       <c r="A36">
         <v>1997</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>110</v>
+      <c r="B36" s="1">
+        <v>0.8089646975664998</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.42869910203657724</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.3285717657253846</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.36935390589963202</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.40575733301861544</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.50157606906605556</v>
       </c>
       <c r="H36" s="4"/>
     </row>
@@ -5167,23 +4454,23 @@
       <c r="A37">
         <v>1998</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>105</v>
+      <c r="B37" s="1">
+        <v>0.81139523564341143</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.43041733261490667</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.32013900080094759</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.35700696056914738</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.39337182295802209</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.49857562299121655</v>
       </c>
       <c r="H37" s="4"/>
     </row>
@@ -5191,23 +4478,23 @@
       <c r="A38">
         <v>1999</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>99</v>
+      <c r="B38" s="1">
+        <v>0.80654144017732687</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.42189449839736393</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.29819727942988739</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.3285717657253846</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.36204020854348745</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.47663704008297203</v>
       </c>
       <c r="H38" s="4"/>
     </row>
@@ -5215,23 +4502,23 @@
       <c r="A39">
         <v>2000</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>93</v>
+      <c r="B39" s="1">
+        <v>0.80977406688127629</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.42528319108227414</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.29611718729007014</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.3211008598705607</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.35629366018615882</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.48190899009020244</v>
       </c>
       <c r="H39" s="4"/>
     </row>
@@ -5239,23 +4526,23 @@
       <c r="A40">
         <v>2001</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>90</v>
+      <c r="B40" s="1">
+        <v>0.82695913394336229</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.45022852130278923</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.32206560885008001</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.34369522092815236</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.38174592861344708</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.51427352770663193</v>
       </c>
       <c r="H40" s="4"/>
     </row>
@@ -5263,23 +4550,23 @@
       <c r="A41">
         <v>2002</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>84</v>
+      <c r="B41" s="1">
+        <v>0.83861798333707405</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.47189442229284201</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.34198103386239759</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.36312795998045994</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.40292694958688574</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.54010052464437064</v>
       </c>
       <c r="H41" s="4"/>
     </row>
@@ -5287,23 +4574,23 @@
       <c r="A42">
         <v>2003</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>78</v>
+      <c r="B42" s="1">
+        <v>0.8428215734716199</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.47950545897489411</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.3478444089170874</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.37643872273806595</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.42231660391334386</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.56665762138222464</v>
       </c>
       <c r="H42" s="4"/>
     </row>
@@ -5311,23 +4598,23 @@
       <c r="A43">
         <v>2004</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>72</v>
+      <c r="B43" s="1">
+        <v>0.84704623418939962</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.4887031641990795</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.35700696056914738</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.39891775945155566</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.44396923921378006</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.59096410468156257</v>
       </c>
       <c r="H43" s="4"/>
     </row>
@@ -5335,23 +4622,23 @@
       <c r="A44">
         <v>2005</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>66</v>
+      <c r="B44" s="1">
+        <v>0.8581297218113938</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.50966583169124757</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.38174592861344708</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.43214244987974026</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.46860269582065023</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.61508180731352868</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -5359,23 +4646,23 @@
       <c r="A45">
         <v>2006</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>60</v>
+      <c r="B45" s="1">
+        <v>0.87459006460333399</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.54280778979032396</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.42400925337104728</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.48287377253122976</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.51017575244082025</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.65181141479873195</v>
       </c>
       <c r="H45" s="4"/>
     </row>
@@ -5383,23 +4670,23 @@
       <c r="A46">
         <v>2007</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>54</v>
+      <c r="B46" s="1">
+        <v>0.88780780076195009</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.57063814029432025</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.45022852130278923</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.51068618336618787</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.53848265109416782</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.68113142717954711</v>
       </c>
       <c r="H46" s="4"/>
     </row>
@@ -5407,23 +4694,23 @@
       <c r="A47">
         <v>2008</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>48</v>
+      <c r="B47" s="1">
+        <v>0.89762759643043488</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.59155536436681511</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.4671989943381879</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.52887667650568249</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.55046054312617665</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.69142541045030848</v>
       </c>
       <c r="H47" s="4"/>
     </row>
@@ -5431,23 +4718,23 @@
       <c r="A48">
         <v>2009</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>24</v>
+      <c r="B48" s="1">
+        <v>0.90302955166887677</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.60350557542704053</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.47425980292801989</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.53365805050299064</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.55599276355783667</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.70328012197634093</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -5455,23 +4742,23 @@
       <c r="A49">
         <v>2010</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>38</v>
+      <c r="B49" s="1">
+        <v>0.92035114722012468</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.64597143141062452</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.52361426564826352</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.58042191514074237</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.60350557542704053</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.74230133974777435</v>
       </c>
       <c r="H49" s="4"/>
     </row>
@@ -5479,23 +4766,23 @@
       <c r="A50">
         <v>2011</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>32</v>
+      <c r="B50" s="1">
+        <v>0.93988288679108889</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.70047262023525236</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.59037343596046388</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.64018377206164712</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.65968027048438904</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.78192222492547725</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -5503,23 +4790,23 @@
       <c r="A51">
         <v>2012</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>26</v>
+      <c r="B51" s="1">
+        <v>0.94743210650179832</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.72325024237984237</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.61816491770292581</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.66631016742488636</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.69004394155878901</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.80573530187347964</v>
       </c>
       <c r="H51" s="4"/>
     </row>
@@ -5527,23 +4814,23 @@
       <c r="A52">
         <v>2013</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>23</v>
+      <c r="B52" s="1">
+        <v>0.94932886684288953</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.73051902815942493</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.62375351291775216</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.6743540562404442</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.70328012197634093</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.81954989333292561</v>
       </c>
       <c r="H52" s="4"/>
     </row>
@@ -5551,23 +4838,23 @@
       <c r="A53">
         <v>2014</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>17</v>
+      <c r="B53" s="1">
+        <v>0.94932886684288953</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.73051902815942493</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.61940248469279924</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.6743540562404442</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.7089289280495108</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.82530686849168233</v>
       </c>
       <c r="H53" s="4"/>
     </row>
@@ -5575,23 +4862,23 @@
       <c r="A54">
         <v>2015</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>11</v>
+      <c r="B54" s="1">
+        <v>0.95122942450071402</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.73712337439162778</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.62750728404734069</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.68181289928599054</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.71248244908919178</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.82695913394336229</v>
       </c>
       <c r="H54" s="4"/>
     </row>
@@ -5606,8 +4893,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5618,7 +4906,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5643,27 +4931,27 @@
         <v>5</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>374</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>375</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>377</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>377</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>377</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5680,7 +4968,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5705,27 +4993,27 @@
         <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>368</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>369</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>370</v>
+        <v>119</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>371</v>
+        <v>120</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>372</v>
+        <v>121</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>373</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5782,22 +5070,22 @@
         <v>1963</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -5805,22 +5093,22 @@
         <v>1964</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -5828,22 +5116,22 @@
         <v>1965</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -5851,22 +5139,22 @@
         <v>1966</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -5874,22 +5162,22 @@
         <v>1967</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -5897,22 +5185,22 @@
         <v>1968</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -5920,22 +5208,22 @@
         <v>1969</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -5943,22 +5231,22 @@
         <v>1970</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -5966,22 +5254,22 @@
         <v>1971</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -5989,22 +5277,22 @@
         <v>1972</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -6012,22 +5300,22 @@
         <v>1973</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -6035,22 +5323,22 @@
         <v>1974</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -6058,22 +5346,22 @@
         <v>1975</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -6081,22 +5369,22 @@
         <v>1976</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>363</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -6104,22 +5392,22 @@
         <v>1977</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -6127,22 +5415,22 @@
         <v>1978</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -6150,22 +5438,22 @@
         <v>1979</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -6173,22 +5461,22 @@
         <v>1980</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>298</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -6196,22 +5484,22 @@
         <v>1981</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>364</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>299</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -6219,22 +5507,22 @@
         <v>1982</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -6242,22 +5530,22 @@
         <v>1983</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>302</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -6265,22 +5553,22 @@
         <v>1984</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>303</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>304</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -6288,22 +5576,22 @@
         <v>1985</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>305</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -6311,22 +5599,22 @@
         <v>1986</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>307</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -6334,22 +5622,22 @@
         <v>1987</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>308</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>309</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -6357,22 +5645,22 @@
         <v>1988</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>310</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -6380,22 +5668,22 @@
         <v>1989</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>365</v>
+        <v>114</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>311</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -6403,22 +5691,22 @@
         <v>1990</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>312</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>313</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -6426,22 +5714,22 @@
         <v>1991</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>314</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>315</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -6449,22 +5737,22 @@
         <v>1992</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>316</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>318</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -6472,22 +5760,22 @@
         <v>1993</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>319</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>320</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>318</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -6495,22 +5783,22 @@
         <v>1994</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>318</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -6518,22 +5806,22 @@
         <v>1995</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>321</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>322</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -6541,22 +5829,22 @@
         <v>1996</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>323</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>324</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -6564,22 +5852,22 @@
         <v>1997</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -6587,22 +5875,22 @@
         <v>1998</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -6610,22 +5898,22 @@
         <v>1999</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -6633,22 +5921,22 @@
         <v>2000</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -6656,22 +5944,22 @@
         <v>2001</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>335</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -6679,22 +5967,22 @@
         <v>2002</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>337</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -6702,22 +5990,22 @@
         <v>2003</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>338</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>339</v>
+        <v>88</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>340</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -6725,22 +6013,22 @@
         <v>2004</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>366</v>
+        <v>115</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>341</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>342</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -6748,22 +6036,22 @@
         <v>2005</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>343</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>344</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -6771,22 +6059,22 @@
         <v>2006</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>346</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -6794,22 +6082,22 @@
         <v>2007</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>347</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>348</v>
+        <v>97</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>344</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -6817,22 +6105,22 @@
         <v>2008</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>349</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>342</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -6840,22 +6128,22 @@
         <v>2009</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -6863,22 +6151,22 @@
         <v>2010</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>340</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -6886,22 +6174,22 @@
         <v>2011</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>353</v>
+        <v>102</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>354</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -6909,22 +6197,22 @@
         <v>2012</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>355</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -6932,22 +6220,22 @@
         <v>2013</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>357</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -6955,22 +6243,22 @@
         <v>2014</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>357</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -6978,68 +6266,68 @@
         <v>2015</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>357</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>358</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>359</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>361</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>362</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7048,4 +6336,1334 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="7" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1963</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.443</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1964</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1965</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1966</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1967</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1968</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1969</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1970</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1971</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1972</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1973</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1974</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1975</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1976</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1977</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1978</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1979</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.628</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1980</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.313</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1981</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1982</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.071</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.159</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.747</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1983</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.149</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1984</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1985</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.022</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1986</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1987</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1988</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.085</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1989</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.101</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1990</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.018</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1991</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1992</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.877</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1993</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1994</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1995</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.249</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1996</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1997</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.113</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1998</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.139</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1999</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.113</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.016</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2000</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.032</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2001</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.133</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2002</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.751</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.073</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2003</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.056</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2004</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2005</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2007</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2008</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2009</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.628</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2010</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.437</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2011</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.246</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2012</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.371</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2013</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2014</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2015</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H57" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>